--- a/Additional Results/Results/Additional Results_v3.xlsx
+++ b/Additional Results/Results/Additional Results_v3.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="81">
   <si>
     <t>2D Beam</t>
   </si>
@@ -209,9 +209,6 @@
     </r>
   </si>
   <si>
-    <t>Abaqus Model</t>
-  </si>
-  <si>
     <t>From the Paper</t>
   </si>
   <si>
@@ -309,6 +306,12 @@
       </rPr>
       <t>-1</t>
     </r>
+  </si>
+  <si>
+    <t>Abaqus Model &amp; Results</t>
+  </si>
+  <si>
+    <t>https://github.com/Joe2303/MECH0020_AS/tree/master/Additional%20Results</t>
   </si>
 </sst>
 </file>
@@ -492,7 +495,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -531,6 +534,7 @@
     <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="5" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -5904,7 +5908,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
@@ -5916,7 +5920,8 @@
     <col min="2" max="2" width="15.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="13.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -5926,18 +5931,18 @@
     </row>
     <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>78</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5945,12 +5950,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>9</v>
       </c>
@@ -5960,8 +5965,10 @@
       <c r="C25" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>52</v>
       </c>
@@ -5971,8 +5978,10 @@
       <c r="C26" s="8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>11</v>
       </c>
@@ -5980,10 +5989,12 @@
         <v>0.34</v>
       </c>
       <c r="C27" s="8"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="8">
         <v>15</v>
@@ -5991,10 +6002,12 @@
       <c r="C28" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="8">
         <v>10</v>
@@ -6002,20 +6015,26 @@
       <c r="C29" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="8"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -6023,40 +6042,40 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="C35" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="D35" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="C36" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="D36" s="23" t="s">
         <v>65</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B37" s="26">
         <v>1</v>
@@ -6076,7 +6095,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B39" s="1">
         <v>3.2899999999999997E-4</v>
@@ -6090,7 +6109,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B40" s="27">
         <v>3.2403899999999998E-4</v>
@@ -6104,7 +6123,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B41" s="28">
         <v>1.5888200000000002E-2</v>
@@ -6124,7 +6143,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B43" s="17">
         <f>((B40-B39)/B39)</f>
@@ -6141,7 +6160,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B44" s="17">
         <f>((B41-B39)/B39)</f>
@@ -6164,40 +6183,40 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="22" t="s">
-        <v>60</v>
-      </c>
       <c r="C49" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="C50" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="D50" s="23" t="s">
         <v>65</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B51" s="26">
         <v>1</v>
@@ -6217,7 +6236,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B53" s="1">
         <v>3.77E-4</v>
@@ -6231,7 +6250,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B54" s="27">
         <v>3.7004399999999998E-4</v>
@@ -6245,7 +6264,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55" s="28">
         <v>1.81412E-2</v>
@@ -6265,7 +6284,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B57" s="17">
         <f>((B54-B53)/B53)</f>
@@ -6282,7 +6301,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B58" s="17">
         <f>((B55-B53)/B53)</f>
@@ -6305,40 +6324,40 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B63" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="D63" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="C64" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="23" t="s">
+      <c r="D64" s="23" t="s">
         <v>65</v>
-      </c>
-      <c r="D64" s="23" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65" s="26">
         <v>1</v>
@@ -6358,7 +6377,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B67" s="1">
         <v>9.8700000000000003E-4</v>
@@ -6372,7 +6391,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68" s="27">
         <v>9.7768300000000002E-4</v>
@@ -6386,7 +6405,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="28">
         <v>4.78542E-2</v>
@@ -6406,7 +6425,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" s="17">
         <f>((B68-B67)/B67)</f>
@@ -6423,7 +6442,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72" s="17">
         <f>((B69-B67)/B67)</f>
@@ -6447,10 +6466,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A6" r:id="rId1"/>
+    <hyperlink ref="B30" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
